--- a/策划文档/【英雄绘卷】策划方案_大地图.xlsx
+++ b/策划文档/【英雄绘卷】策划方案_大地图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>行动</t>
   </si>
@@ -232,6 +232,15 @@
     <t>资源会随着时间恢复</t>
   </si>
   <si>
+    <t>资源输送</t>
+  </si>
+  <si>
+    <t>可在城池之间输送资源</t>
+  </si>
+  <si>
+    <t>输送时需要消耗道具，并且输送过程中会有资源损失</t>
+  </si>
+  <si>
     <t>出征</t>
   </si>
   <si>
@@ -449,8 +458,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -475,21 +484,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,31 +505,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +545,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,14 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,6 +589,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -611,10 +605,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -639,31 +648,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,151 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +839,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -850,44 +892,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,17 +925,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,10 +947,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,133 +959,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,13 +1178,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1193,7 +1202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="4540250"/>
+          <a:off x="6324600" y="5797550"/>
           <a:ext cx="5210175" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1784,10 +1793,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:Q45"/>
+  <dimension ref="B2:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1802,11 +1811,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:12">
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1818,11 +1827,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:12">
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1959,25 +1968,17 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row r="17" spans="10:17">
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="3:17">
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="18" spans="10:17">
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1987,126 +1988,169 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="1" t="s">
-        <v>49</v>
+    <row r="19" spans="2:17">
+      <c r="B19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="3:17">
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="1" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2191,7 @@
     <row r="2" s="1" customFormat="1" spans="2:15">
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2"/>
       <c r="O2" s="2"/>
@@ -2155,7 +2199,7 @@
     <row r="3" s="1" customFormat="1" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2"/>
       <c r="O3" s="2"/>
@@ -2163,14 +2207,14 @@
     <row r="4" s="1" customFormat="1" spans="2:15">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:15">
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2"/>
       <c r="O5" s="2"/>
@@ -2178,21 +2222,21 @@
     <row r="6" s="1" customFormat="1" spans="2:15">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:15">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2"/>
       <c r="O7" s="2"/>
@@ -2200,10 +2244,10 @@
     <row r="8" s="1" customFormat="1" spans="2:15">
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2"/>
       <c r="O8" s="2"/>
@@ -2211,17 +2255,17 @@
     <row r="9" s="1" customFormat="1" spans="2:15">
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:15">
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2232,14 +2276,14 @@
     <row r="12" s="1" customFormat="1" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:15">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="2"/>
@@ -2253,7 +2297,7 @@
     <row r="15" s="1" customFormat="1" spans="2:15">
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2"/>
       <c r="O15" s="2"/>
@@ -2261,7 +2305,7 @@
     <row r="16" s="1" customFormat="1" spans="2:15">
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2"/>
       <c r="O16" s="2"/>
@@ -2274,14 +2318,14 @@
     <row r="18" s="1" customFormat="1" spans="2:15">
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:15">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2"/>
       <c r="I19" s="2"/>
@@ -2290,40 +2334,40 @@
     <row r="20" s="1" customFormat="1" spans="2:15">
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I20" s="2"/>
       <c r="N20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:15">
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:15">
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:15">
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I23" s="2"/>
       <c r="O23" s="2"/>
@@ -2331,7 +2375,7 @@
     <row r="24" s="1" customFormat="1" spans="2:15">
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I24" s="2"/>
       <c r="O24" s="2"/>
@@ -2343,7 +2387,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="2:15">
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2"/>
       <c r="O26" s="2"/>
@@ -2351,7 +2395,7 @@
     <row r="27" s="1" customFormat="1" spans="2:15">
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2"/>
       <c r="O27" s="2"/>
@@ -2359,7 +2403,7 @@
     <row r="28" s="1" customFormat="1" spans="2:15">
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I28" s="2"/>
       <c r="O28" s="2"/>
@@ -2367,7 +2411,7 @@
     <row r="29" s="1" customFormat="1" spans="2:15">
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I29" s="2"/>
       <c r="O29" s="2"/>
@@ -2379,7 +2423,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="2:15">
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I31" s="2"/>
       <c r="O31" s="2"/>
@@ -2387,7 +2431,7 @@
     <row r="32" s="1" customFormat="1" spans="2:15">
       <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I32" s="2"/>
       <c r="O32" s="2"/>
@@ -2395,14 +2439,14 @@
     <row r="33" s="1" customFormat="1" spans="2:15">
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:15">
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I34" s="2"/>
       <c r="O34" s="2"/>
@@ -2410,7 +2454,7 @@
     <row r="35" s="1" customFormat="1" spans="2:15">
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I35" s="2"/>
       <c r="O35" s="2"/>
@@ -2418,7 +2462,7 @@
     <row r="36" s="1" customFormat="1" spans="2:15">
       <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2"/>
       <c r="O36" s="2"/>
@@ -2429,7 +2473,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="2:15">
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I38" s="2"/>
       <c r="O38" s="2"/>
@@ -2437,24 +2481,24 @@
     <row r="39" s="1" customFormat="1" spans="2:15">
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:15">
       <c r="B40" s="2"/>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:15">
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I41" s="2"/>
       <c r="O41" s="2"/>
@@ -2466,7 +2510,7 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="2:15">
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I43" s="2"/>
       <c r="O43" s="2"/>
@@ -2474,35 +2518,35 @@
     <row r="44" s="1" customFormat="1" spans="2:15">
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O44" s="2"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:15">
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O45" s="2"/>
     </row>
